--- a/Collections/Германия/Регулярный чекан ФРГ 1948-2001.xlsx
+++ b/Collections/Германия/Регулярный чекан ФРГ 1948-2001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1 пфенинг" sheetId="12" r:id="rId1"/>
@@ -861,16 +861,22 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1061,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,19 +1097,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,18 +1112,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1395,12 +1416,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1429,9 +1444,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="34"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="33" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1747,24 +1762,24 @@
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
     <col min="30" max="31" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1815,7 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -1836,7 +1851,7 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="14" t="str">
         <f t="shared" ref="G4:G56" si="3">IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -1872,7 +1887,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1908,7 +1923,7 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1944,7 +1959,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1980,7 +1995,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2016,7 +2031,7 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2052,7 +2067,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2088,7 +2103,7 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2124,7 +2139,7 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2160,7 +2175,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2196,7 +2211,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2232,7 +2247,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2268,7 +2283,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2304,7 +2319,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2340,7 +2355,7 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2376,7 +2391,7 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2412,7 +2427,7 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2448,7 +2463,7 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2484,7 +2499,7 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2520,7 +2535,7 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2556,7 +2571,7 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2592,7 +2607,7 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2628,7 +2643,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2664,7 +2679,7 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2700,7 +2715,7 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2736,7 +2751,7 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2772,7 +2787,7 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2808,7 +2823,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2844,7 +2859,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2880,7 +2895,7 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2916,7 +2931,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2952,7 +2967,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2988,7 +3003,7 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3024,7 +3039,7 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3060,7 +3075,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3096,7 +3111,7 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3132,7 +3147,7 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3168,7 +3183,7 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3204,7 +3219,7 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3240,7 +3255,7 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3276,7 +3291,7 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3312,7 +3327,7 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3348,7 +3363,7 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3384,7 +3399,7 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3420,7 +3435,7 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3456,7 +3471,7 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3492,7 +3507,7 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3528,7 +3543,7 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3564,7 +3579,7 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3600,7 +3615,7 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3636,7 +3651,7 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3672,7 +3687,7 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3700,7 +3715,7 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3727,7 +3742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B43">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3744,7 +3759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3761,7 +3776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:F56 C3:F44">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3786,23 +3801,23 @@
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3838,7 +3853,7 @@
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -3862,7 +3877,7 @@
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="14" t="str">
         <f t="shared" ref="G4:G57" si="0">IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -3886,7 +3901,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3910,7 +3925,7 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3934,7 +3949,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3958,7 +3973,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3982,7 +3997,7 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4006,7 +4021,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4030,7 +4045,7 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4054,7 +4069,7 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4078,7 +4093,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4102,7 +4117,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4126,7 +4141,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4150,7 +4165,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4174,7 +4189,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4198,7 +4213,7 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4222,7 +4237,7 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4246,7 +4261,7 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4270,7 +4285,7 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4294,7 +4309,7 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4318,7 +4333,7 @@
       <c r="F23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4342,7 +4357,7 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4366,7 +4381,7 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4390,7 +4405,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4414,7 +4429,7 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4438,7 +4453,7 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4462,7 +4477,7 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4486,7 +4501,7 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4510,7 +4525,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4534,7 +4549,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4558,7 +4573,7 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4582,7 +4597,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4606,7 +4621,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4630,7 +4645,7 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4654,7 +4669,7 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4678,7 +4693,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4702,7 +4717,7 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4726,7 +4741,7 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4750,7 +4765,7 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4774,7 +4789,7 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4798,7 +4813,7 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4822,7 +4837,7 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4846,7 +4861,7 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4870,7 +4885,7 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4894,7 +4909,7 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4918,7 +4933,7 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4942,7 +4957,7 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4966,7 +4981,7 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4990,7 +5005,7 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5014,7 +5029,7 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5038,7 +5053,7 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5062,7 +5077,7 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5086,7 +5101,7 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5110,7 +5125,7 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5134,7 +5149,7 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="21" t="str">
+      <c r="G57" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5193,12 +5208,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F21 C22 E22:F22 D23 F23 B3:F3">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:F57 D22 C23 E23 C24:F45">
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5246,25 +5261,25 @@
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
     <col min="20" max="20" width="9.1796875" style="8"/>
     <col min="31" max="32" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -5300,7 +5315,7 @@
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -5340,7 +5355,7 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="14" t="str">
         <f t="shared" ref="G4:G56" si="4">IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -5380,7 +5395,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5420,7 +5435,7 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5460,7 +5475,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5500,7 +5515,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5540,7 +5555,7 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5580,7 +5595,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5620,7 +5635,7 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5660,7 +5675,7 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5700,7 +5715,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5740,7 +5755,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5780,7 +5795,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5820,7 +5835,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5860,7 +5875,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5900,7 +5915,7 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5940,7 +5955,7 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5980,7 +5995,7 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6020,7 +6035,7 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6060,7 +6075,7 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6100,7 +6115,7 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6140,7 +6155,7 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6180,7 +6195,7 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6220,7 +6235,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6260,7 +6275,7 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6300,7 +6315,7 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6340,7 +6355,7 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6380,7 +6395,7 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6420,7 +6435,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6460,7 +6475,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6500,7 +6515,7 @@
       <c r="F33" s="3">
         <v>1</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6540,7 +6555,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6580,7 +6595,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6620,7 +6635,7 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6660,7 +6675,7 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6700,7 +6715,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6740,7 +6755,7 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6780,7 +6795,7 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6820,7 +6835,7 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6860,7 +6875,7 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6900,7 +6915,7 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6940,7 +6955,7 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6980,7 +6995,7 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7020,7 +7035,7 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7060,7 +7075,7 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7100,7 +7115,7 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7140,7 +7155,7 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7180,7 +7195,7 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7220,7 +7235,7 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7260,7 +7275,7 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7300,7 +7315,7 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7340,7 +7355,7 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7380,7 +7395,7 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7412,7 +7427,7 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7443,7 +7458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7460,7 +7475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7477,7 +7492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:F56 C43:F44 B3:F42">
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7505,24 +7520,24 @@
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
     <col min="30" max="31" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7558,7 +7573,7 @@
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -7594,7 +7609,7 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="14" t="str">
         <f>IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -7630,7 +7645,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" ref="G5:G56" si="3">IF(OR(AND(B5&gt;1,B5&lt;&gt;"-"),AND(C5&gt;1,C5&lt;&gt;"-"),AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-"),AND(F5&gt;1,F5&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -7660,13 +7675,13 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7702,7 +7717,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7738,7 +7753,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7774,7 +7789,7 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7810,7 +7825,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7846,7 +7861,7 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7882,7 +7897,7 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7918,7 +7933,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7954,7 +7969,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7990,7 +8005,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8026,7 +8041,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8062,7 +8077,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8098,7 +8113,7 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8134,7 +8149,7 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8170,7 +8185,7 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8206,7 +8221,7 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8242,7 +8257,7 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8278,7 +8293,7 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8314,7 +8329,7 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8350,7 +8365,7 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8386,7 +8401,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8422,7 +8437,7 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8458,7 +8473,7 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8494,7 +8509,7 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8530,7 +8545,7 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8566,7 +8581,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8602,7 +8617,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8638,7 +8653,7 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8674,7 +8689,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8710,7 +8725,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8746,7 +8761,7 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8782,7 +8797,7 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8818,7 +8833,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8854,7 +8869,7 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8890,7 +8905,7 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8926,7 +8941,7 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8962,7 +8977,7 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8998,7 +9013,7 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9034,7 +9049,7 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9070,7 +9085,7 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9106,7 +9121,7 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9142,7 +9157,7 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9178,7 +9193,7 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9214,7 +9229,7 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9250,7 +9265,7 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9286,7 +9301,7 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9322,7 +9337,7 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9358,7 +9373,7 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9394,7 +9409,7 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9430,7 +9445,7 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9458,7 +9473,7 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9485,7 +9500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B43">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9502,7 +9517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9519,7 +9534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:F56 C3:F44">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9552,19 +9567,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9600,7 +9615,7 @@
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -9636,7 +9651,7 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="14" t="str">
         <f t="shared" ref="G4:G56" si="3">IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -9672,7 +9687,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9708,7 +9723,7 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9744,7 +9759,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9780,7 +9795,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9816,7 +9831,7 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9852,7 +9867,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9888,7 +9903,7 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9924,7 +9939,7 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9960,7 +9975,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9996,7 +10011,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10032,7 +10047,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10068,7 +10083,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10104,7 +10119,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10140,7 +10155,7 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10176,7 +10191,7 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10212,7 +10227,7 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10248,7 +10263,7 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10284,7 +10299,7 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10320,7 +10335,7 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10356,7 +10371,7 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10392,7 +10407,7 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10428,7 +10443,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10464,7 +10479,7 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10500,7 +10515,7 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10536,7 +10551,7 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10572,7 +10587,7 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10608,7 +10623,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10644,7 +10659,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10680,7 +10695,7 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10716,7 +10731,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10752,7 +10767,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10788,7 +10803,7 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10824,7 +10839,7 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10860,7 +10875,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10896,7 +10911,7 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10932,7 +10947,7 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10968,7 +10983,7 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11004,7 +11019,7 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11040,7 +11055,7 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11076,7 +11091,7 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11112,7 +11127,7 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11148,7 +11163,7 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11184,7 +11199,7 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11220,7 +11235,7 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11256,7 +11271,7 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11292,7 +11307,7 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="14" t="str">
         <f>IF(OR(AND(B50&gt;1,B50&lt;&gt;"-"),AND(C50&gt;1,C50&lt;&gt;"-"),AND(D50&gt;1,D50&lt;&gt;"-"),AND(E50&gt;1,E50&lt;&gt;"-"),AND(F50&gt;1,F50&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -11328,7 +11343,7 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11364,7 +11379,7 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11400,7 +11415,7 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11436,7 +11451,7 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11472,7 +11487,7 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11500,7 +11515,7 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11527,7 +11542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B43">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11544,7 +11559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11561,7 +11576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:F44 B45:F56">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11594,19 +11609,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -11642,7 +11657,7 @@
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -11678,7 +11693,7 @@
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="14" t="str">
         <f t="shared" ref="G4:G56" si="3">IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
@@ -11714,7 +11729,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11750,7 +11765,7 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11786,7 +11801,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11822,7 +11837,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11858,7 +11873,7 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11894,7 +11909,7 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11930,7 +11945,7 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11966,7 +11981,7 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12002,7 +12017,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12038,7 +12053,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12074,7 +12089,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12110,7 +12125,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12146,7 +12161,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12182,7 +12197,7 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12218,7 +12233,7 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12254,7 +12269,7 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12290,7 +12305,7 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12326,7 +12341,7 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12362,7 +12377,7 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12398,7 +12413,7 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12434,7 +12449,7 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12470,7 +12485,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12506,7 +12521,7 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12542,7 +12557,7 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12578,7 +12593,7 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12614,7 +12629,7 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12650,7 +12665,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12686,7 +12701,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12722,7 +12737,7 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12758,7 +12773,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12794,7 +12809,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12830,7 +12845,7 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12866,7 +12881,7 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12902,7 +12917,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12938,7 +12953,7 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12974,7 +12989,7 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13010,7 +13025,7 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13046,7 +13061,7 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13082,7 +13097,7 @@
       <c r="F43" s="3">
         <v>1</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13118,7 +13133,7 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13154,7 +13169,7 @@
       <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13190,7 +13205,7 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13226,7 +13241,7 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13262,7 +13277,7 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13298,7 +13313,7 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13334,7 +13349,7 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13370,7 +13385,7 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13406,7 +13421,7 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13442,7 +13457,7 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13478,7 +13493,7 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13514,7 +13529,7 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13542,7 +13557,7 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13569,7 +13584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B43">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13586,7 +13601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13603,7 +13618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:F56 C3:F44">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13619,7 +13634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -13628,83 +13643,83 @@
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="5" width="3.81640625" customWidth="1"/>
     <col min="6" max="6" width="3.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="16" customWidth="1"/>
     <col min="8" max="8" width="5.453125" customWidth="1"/>
     <col min="9" max="12" width="3.81640625" customWidth="1"/>
     <col min="13" max="13" width="3.7265625" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="25"/>
+    <col min="14" max="14" width="8.7265625" style="16"/>
     <col min="15" max="15" width="5.453125" customWidth="1"/>
     <col min="16" max="19" width="3.81640625" customWidth="1"/>
     <col min="20" max="20" width="3.7265625" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="25"/>
+    <col min="21" max="21" width="8.7265625" style="16"/>
     <col min="22" max="22" width="5.453125" customWidth="1"/>
     <col min="23" max="26" width="3.81640625" customWidth="1"/>
     <col min="27" max="27" width="3.7265625" customWidth="1"/>
-    <col min="28" max="28" width="8.7265625" style="25"/>
+    <col min="28" max="28" width="8.7265625" style="16"/>
     <col min="29" max="29" width="5.453125" customWidth="1"/>
     <col min="30" max="33" width="3.81640625" customWidth="1"/>
     <col min="34" max="34" width="3.7265625" customWidth="1"/>
-    <col min="35" max="35" width="8.7265625" style="25"/>
+    <col min="35" max="35" width="8.7265625" style="16"/>
     <col min="36" max="36" width="5.453125" customWidth="1"/>
     <col min="37" max="40" width="3.81640625" customWidth="1"/>
     <col min="41" max="41" width="3.7265625" customWidth="1"/>
-    <col min="42" max="44" width="8.7265625" style="25"/>
+    <col min="42" max="44" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="V1" s="23" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="V1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AC1" s="23" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AC1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AJ1" s="23" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AJ1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -15112,12 +15127,12 @@
       <c r="AH14" s="3">
         <v>0</v>
       </c>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -15210,14 +15225,14 @@
       <c r="AH15" s="3">
         <v>0</v>
       </c>
-      <c r="AJ15" s="23" t="s">
+      <c r="AJ15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
     </row>
     <row r="16" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -15292,12 +15307,12 @@
       <c r="AA16" s="3">
         <v>0</v>
       </c>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
       <c r="AJ16" s="2">
         <v>1994</v>
       </c>
@@ -15372,18 +15387,18 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
       <c r="AJ17" s="2">
         <v>1995</v>
       </c>
@@ -15458,18 +15473,18 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
       <c r="AJ18" s="2">
         <v>1996</v>
       </c>
@@ -15544,18 +15559,18 @@
       <c r="T19" s="3">
         <v>0</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
       <c r="AJ19" s="2">
         <v>1997</v>
       </c>
@@ -15612,24 +15627,24 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
       <c r="AJ20" s="2">
         <v>1998</v>
       </c>
@@ -15668,30 +15683,30 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
       <c r="AJ21" s="2">
         <v>1999</v>
       </c>
@@ -15730,30 +15745,30 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
       <c r="AJ22" s="2">
         <v>2000</v>
       </c>
@@ -15792,30 +15807,30 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
       <c r="AJ23" s="2">
         <v>2001</v>
       </c>
@@ -15854,36 +15869,36 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -15904,36 +15919,36 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
     </row>
     <row r="26" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
@@ -15954,36 +15969,36 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
@@ -16004,36 +16019,36 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
     </row>
     <row r="28" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
@@ -16054,36 +16069,36 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="16"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
@@ -16104,105 +16119,105 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-    </row>
-    <row r="30" spans="1:41" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-    </row>
-    <row r="31" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+    </row>
+    <row r="30" spans="1:41" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+    </row>
+    <row r="31" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="AJ15:AO15"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:F3 C4:F23 B4:B29">
     <cfRule type="colorScale" priority="83">
@@ -16229,17 +16244,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3 C4:F23 B4:B29">
-    <cfRule type="containsText" dxfId="14" priority="82" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="82" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:F29">
-    <cfRule type="containsText" dxfId="13" priority="294" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="294" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I18">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16256,7 +16271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I20">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16285,12 +16300,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:M20">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AO23">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16307,7 +16322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16336,12 +16351,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P18">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:T19">
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16370,12 +16385,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W13">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AA16 W14:W16">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16404,12 +16419,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD4">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AH15 AE2:AH13 AD5:AD13">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16438,12 +16453,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AO13 AK3:AK13">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16469,11 +16484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16495,19 +16510,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
